--- a/resultados2/metrics_por_texto_com_baseline.xlsx
+++ b/resultados2/metrics_por_texto_com_baseline.xlsx
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.289674997329712</v>
+        <v>3.726722478866577</v>
       </c>
       <c r="D2" t="n">
         <v>0.2765625</v>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1878223419189453</v>
+        <v>0.08533525466918945</v>
       </c>
       <c r="D3" t="n">
         <v>0.2864363942712721</v>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3410446643829346</v>
+        <v>0.3453719615936279</v>
       </c>
       <c r="D4" t="n">
         <v>0.216822429906542</v>
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05394268035888672</v>
+        <v>0.05210423469543457</v>
       </c>
       <c r="D5" t="n">
         <v>0.7673267326732673</v>
@@ -580,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1106133460998535</v>
+        <v>0.1052999496459961</v>
       </c>
       <c r="D6" t="n">
         <v>0.1871239470517449</v>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.380676507949829</v>
+        <v>1.38190770149231</v>
       </c>
       <c r="D7" t="n">
         <v>0.1805872146429422</v>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.606453895568848</v>
+        <v>1.689863443374634</v>
       </c>
       <c r="D8" t="n">
         <v>0.1805872146429422</v>
@@ -655,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.403595924377441</v>
+        <v>1.378387928009033</v>
       </c>
       <c r="D9" t="n">
         <v>0.1876737552803553</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2798380851745605</v>
+        <v>0.3627090454101562</v>
       </c>
       <c r="D10" t="n">
         <v>0.2272503689129365</v>
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1576087474822998</v>
+        <v>0.1477208137512207</v>
       </c>
       <c r="D11" t="n">
         <v>0.2531293463143254</v>
@@ -730,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2292189598083496</v>
+        <v>0.2122530937194824</v>
       </c>
       <c r="D12" t="n">
         <v>0.278453383224197</v>
@@ -755,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3906545639038086</v>
+        <v>0.1777474880218506</v>
       </c>
       <c r="D13" t="n">
         <v>0.2486122125297383</v>
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2243528366088867</v>
+        <v>0.2160978317260742</v>
       </c>
       <c r="D14" t="n">
         <v>0.278453383224197</v>
@@ -805,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1125452518463135</v>
+        <v>0.1105682849884033</v>
       </c>
       <c r="D15" t="n">
         <v>0.2568627450980392</v>
@@ -830,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2785401344299316</v>
+        <v>0.2845001220703125</v>
       </c>
       <c r="D16" t="n">
         <v>0.2511858559724019</v>
@@ -855,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05448627471923828</v>
+        <v>0.07275986671447754</v>
       </c>
       <c r="D17" t="n">
         <v>0.7673267326732673</v>
@@ -880,7 +880,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0.539024829864502</v>
+        <v>0.5395534038543701</v>
       </c>
       <c r="D18" t="n">
         <v>0.2357449019353163</v>
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4874818325042725</v>
+        <v>0.3739371299743652</v>
       </c>
       <c r="D19" t="n">
         <v>0.2088330477822197</v>
@@ -930,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6022398471832275</v>
+        <v>0.4800035953521729</v>
       </c>
       <c r="D20" t="n">
         <v>0.1520442930153322</v>
@@ -955,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1731672286987305</v>
+        <v>0.1672422885894775</v>
       </c>
       <c r="D21" t="n">
         <v>0.2368526696105981</v>
@@ -980,7 +980,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4034912586212158</v>
+        <v>0.3854775428771973</v>
       </c>
       <c r="D22" t="n">
         <v>0.1910960196189398</v>
@@ -1005,7 +1005,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2332611083984375</v>
+        <v>0.2192008495330811</v>
       </c>
       <c r="D23" t="n">
         <v>0.258887171561051</v>
@@ -1030,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2443656921386719</v>
+        <v>0.2800445556640625</v>
       </c>
       <c r="D24" t="n">
         <v>0.2002530844669408</v>
@@ -1055,7 +1055,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3592610359191895</v>
+        <v>0.3421554565429688</v>
       </c>
       <c r="D25" t="n">
         <v>0.2458212614218855</v>
@@ -1080,7 +1080,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>1.267669916152954</v>
+        <v>1.173881530761719</v>
       </c>
       <c r="D26" t="n">
         <v>0.1876737552803553</v>
@@ -1105,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4598557949066162</v>
+        <v>0.4519391059875488</v>
       </c>
       <c r="D27" t="n">
         <v>0.2930056710775047</v>
@@ -1130,7 +1130,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3315141201019287</v>
+        <v>0.3369958400726318</v>
       </c>
       <c r="D28" t="n">
         <v>0.1715522329333071</v>
@@ -1155,7 +1155,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>0.920292854309082</v>
+        <v>0.8598229885101318</v>
       </c>
       <c r="D29" t="n">
         <v>0.218670641492768</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.129674673080444</v>
+        <v>1.0510094165802</v>
       </c>
       <c r="D30" t="n">
         <v>0.1970982142857143</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2553198337554932</v>
+        <v>0.2529809474945068</v>
       </c>
       <c r="D31" t="n">
         <v>0.2914911541701769</v>
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7946040630340576</v>
+        <v>0.7779154777526855</v>
       </c>
       <c r="D32" t="n">
         <v>0.2520249221183801</v>
@@ -1255,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1346349716186523</v>
+        <v>0.1767613887786865</v>
       </c>
       <c r="D33" t="n">
         <v>0.7673267326732673</v>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4068000316619873</v>
+        <v>0.4078166484832764</v>
       </c>
       <c r="D34" t="n">
         <v>0.2226233453670277</v>
@@ -1305,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>5.778109073638916</v>
+        <v>5.457901239395142</v>
       </c>
       <c r="D35" t="n">
         <v>0.1836831898751403</v>
@@ -1330,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="n">
-        <v>6.13109564781189</v>
+        <v>5.517557859420776</v>
       </c>
       <c r="D36" t="n">
         <v>0.1836831898751403</v>
@@ -1355,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>5.061831474304199</v>
+        <v>4.731856822967529</v>
       </c>
       <c r="D37" t="n">
         <v>0.1646387695418276</v>
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5274817943572998</v>
+        <v>0.4133286476135254</v>
       </c>
       <c r="D38" t="n">
         <v>0.2311854402361043</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>0.434213399887085</v>
+        <v>0.4314947128295898</v>
       </c>
       <c r="D39" t="n">
         <v>0.2531293463143254</v>
@@ -1430,7 +1430,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6011285781860352</v>
+        <v>0.6011745929718018</v>
       </c>
       <c r="D40" t="n">
         <v>0.2082943560960399</v>
@@ -1455,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5807409286499023</v>
+        <v>0.5564999580383301</v>
       </c>
       <c r="D41" t="n">
         <v>0.232355273592387</v>
@@ -1480,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6107604503631592</v>
+        <v>0.593944787979126</v>
       </c>
       <c r="D42" t="n">
         <v>0.2082943560960399</v>
@@ -1505,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3293919563293457</v>
+        <v>0.313683032989502</v>
       </c>
       <c r="D43" t="n">
         <v>0.2627450980392157</v>
@@ -1530,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7333981990814209</v>
+        <v>0.7046561241149902</v>
       </c>
       <c r="D44" t="n">
         <v>0.1923242777059077</v>
@@ -1555,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133366584777832</v>
+        <v>0.1247367858886719</v>
       </c>
       <c r="D45" t="n">
         <v>0.7673267326732673</v>
@@ -1580,7 +1580,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="n">
-        <v>1.886582851409912</v>
+        <v>1.847059488296509</v>
       </c>
       <c r="D46" t="n">
         <v>0.2209377841278088</v>
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="C47" t="n">
-        <v>1.454398393630981</v>
+        <v>1.476282596588135</v>
       </c>
       <c r="D47" t="n">
         <v>0.2248239101465829</v>
@@ -1630,7 +1630,7 @@
         <v>18</v>
       </c>
       <c r="C48" t="n">
-        <v>1.222123146057129</v>
+        <v>1.168903589248657</v>
       </c>
       <c r="D48" t="n">
         <v>0.2001703577512777</v>
@@ -1655,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="C49" t="n">
-        <v>0.480273962020874</v>
+        <v>0.4819369316101074</v>
       </c>
       <c r="D49" t="n">
         <v>0.2537133681252509</v>
@@ -1680,7 +1680,7 @@
         <v>20</v>
       </c>
       <c r="C50" t="n">
-        <v>1.254035472869873</v>
+        <v>1.190032243728638</v>
       </c>
       <c r="D50" t="n">
         <v>0.1988304093567251</v>
@@ -1705,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5217792987823486</v>
+        <v>0.5104036331176758</v>
       </c>
       <c r="D51" t="n">
         <v>0.2256568778979907</v>
@@ -1730,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="C52" t="n">
-        <v>0.6507987976074219</v>
+        <v>0.6044430732727051</v>
       </c>
       <c r="D52" t="n">
         <v>0.1974058842138564</v>
@@ -1755,7 +1755,7 @@
         <v>23</v>
       </c>
       <c r="C53" t="n">
-        <v>1.000550270080566</v>
+        <v>0.9400427341461182</v>
       </c>
       <c r="D53" t="n">
         <v>0.2097169601069757</v>
@@ -1780,7 +1780,7 @@
         <v>24</v>
       </c>
       <c r="C54" t="n">
-        <v>4.872487306594849</v>
+        <v>4.555555820465088</v>
       </c>
       <c r="D54" t="n">
         <v>0.1646387695418276</v>
@@ -1805,7 +1805,7 @@
         <v>25</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8436076641082764</v>
+        <v>0.8267111778259277</v>
       </c>
       <c r="D55" t="n">
         <v>0.2069943289224953</v>
@@ -1830,7 +1830,7 @@
         <v>26</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7997903823852539</v>
+        <v>0.731238842010498</v>
       </c>
       <c r="D56" t="n">
         <v>0.152665748573677</v>
@@ -1855,7 +1855,7 @@
         <v>27</v>
       </c>
       <c r="C57" t="n">
-        <v>3.786319732666016</v>
+        <v>3.479123830795288</v>
       </c>
       <c r="D57" t="n">
         <v>0.1788119686430385</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>6.06984806060791</v>
+        <v>6.136823415756226</v>
       </c>
       <c r="D58" t="n">
         <v>0.1966517857142857</v>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1.528131246566772</v>
+        <v>1.567386150360107</v>
       </c>
       <c r="D59" t="n">
         <v>0.371524852569503</v>
@@ -1930,7 +1930,7 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>5.323399066925049</v>
+        <v>5.232789754867554</v>
       </c>
       <c r="D60" t="n">
         <v>0.2277258566978193</v>
@@ -1955,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>1.138705492019653</v>
+        <v>1.177037000656128</v>
       </c>
       <c r="D61" t="n">
         <v>0.7673267326732673</v>
@@ -1980,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>2.783321380615234</v>
+        <v>2.754518032073975</v>
       </c>
       <c r="D62" t="n">
         <v>0.2755716004813478</v>
@@ -2005,7 +2005,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>41.58531618118286</v>
+        <v>42.53421807289124</v>
       </c>
       <c r="D63" t="n">
         <v>0.173476678120641</v>
@@ -2030,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>41.62307739257812</v>
+        <v>43.66791987419128</v>
       </c>
       <c r="D64" t="n">
         <v>0.173476678120641</v>
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>41.31646394729614</v>
+        <v>44.12336611747742</v>
       </c>
       <c r="D65" t="n">
         <v>0.1549265263385926</v>
@@ -2080,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="C66" t="n">
-        <v>2.767863273620605</v>
+        <v>2.827271938323975</v>
       </c>
       <c r="D66" t="n">
         <v>0.250368912936547</v>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>2.898423671722412</v>
+        <v>2.953197002410889</v>
       </c>
       <c r="D67" t="n">
         <v>0.3212795549374131</v>
@@ -2130,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="C68" t="n">
-        <v>4.081214904785156</v>
+        <v>4.136046648025513</v>
       </c>
       <c r="D68" t="n">
         <v>0.2192079825381977</v>
@@ -2155,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="C69" t="n">
-        <v>3.131581544876099</v>
+        <v>3.130542516708374</v>
       </c>
       <c r="D69" t="n">
         <v>0.2498017446471055</v>
@@ -2180,7 +2180,7 @@
         <v>12</v>
       </c>
       <c r="C70" t="n">
-        <v>4.153298139572144</v>
+        <v>4.131512880325317</v>
       </c>
       <c r="D70" t="n">
         <v>0.2192079825381977</v>
@@ -2205,7 +2205,7 @@
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>1.931864023208618</v>
+        <v>1.933137893676758</v>
       </c>
       <c r="D71" t="n">
         <v>0.2627450980392157</v>
@@ -2230,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="C72" t="n">
-        <v>5.391583442687988</v>
+        <v>5.557842254638672</v>
       </c>
       <c r="D72" t="n">
         <v>0.2048296679603277</v>
@@ -2255,7 +2255,7 @@
         <v>15</v>
       </c>
       <c r="C73" t="n">
-        <v>1.11262583732605</v>
+        <v>1.162195920944214</v>
       </c>
       <c r="D73" t="n">
         <v>0.7673267326732673</v>
@@ -2280,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="n">
-        <v>12.38476848602295</v>
+        <v>12.45959091186523</v>
       </c>
       <c r="D74" t="n">
         <v>0.2000259773996623</v>
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="C75" t="n">
-        <v>8.630611419677734</v>
+        <v>8.528643846511841</v>
       </c>
       <c r="D75" t="n">
         <v>0.2092137826004188</v>
@@ -2330,7 +2330,7 @@
         <v>18</v>
       </c>
       <c r="C76" t="n">
-        <v>8.003039598464966</v>
+        <v>8.269576549530029</v>
       </c>
       <c r="D76" t="n">
         <v>0.1643952299829642</v>
@@ -2355,7 +2355,7 @@
         <v>19</v>
       </c>
       <c r="C77" t="n">
-        <v>3.094184160232544</v>
+        <v>3.101171493530273</v>
       </c>
       <c r="D77" t="n">
         <v>0.2336411079887595</v>
@@ -2380,7 +2380,7 @@
         <v>20</v>
       </c>
       <c r="C78" t="n">
-        <v>7.880082130432129</v>
+        <v>7.867181539535522</v>
       </c>
       <c r="D78" t="n">
         <v>0.1903414450103754</v>
@@ -2405,7 +2405,7 @@
         <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>3.769739389419556</v>
+        <v>3.781141757965088</v>
       </c>
       <c r="D79" t="n">
         <v>0.2569551777434312</v>
@@ -2430,7 +2430,7 @@
         <v>22</v>
       </c>
       <c r="C80" t="n">
-        <v>5.095702648162842</v>
+        <v>5.211909532546997</v>
       </c>
       <c r="D80" t="n">
         <v>0.2480227776020247</v>
@@ -2455,7 +2455,7 @@
         <v>23</v>
       </c>
       <c r="C81" t="n">
-        <v>6.169661283493042</v>
+        <v>6.173851490020752</v>
       </c>
       <c r="D81" t="n">
         <v>0.1869846222420325</v>
@@ -2480,7 +2480,7 @@
         <v>24</v>
       </c>
       <c r="C82" t="n">
-        <v>41.65986490249634</v>
+        <v>42.18368887901306</v>
       </c>
       <c r="D82" t="n">
         <v>0.1549265263385926</v>
@@ -2505,7 +2505,7 @@
         <v>25</v>
       </c>
       <c r="C83" t="n">
-        <v>5.114671468734741</v>
+        <v>5.18602442741394</v>
       </c>
       <c r="D83" t="n">
         <v>0.2709514807813485</v>
@@ -2530,7 +2530,7 @@
         <v>26</v>
       </c>
       <c r="C84" t="n">
-        <v>5.186969518661499</v>
+        <v>5.230589389801025</v>
       </c>
       <c r="D84" t="n">
         <v>0.1383041510918749</v>
@@ -2555,7 +2555,7 @@
         <v>27</v>
       </c>
       <c r="C85" t="n">
-        <v>31.46267366409302</v>
+        <v>32.00463390350342</v>
       </c>
       <c r="D85" t="n">
         <v>0.1657281660594016</v>
@@ -2573,7 +2573,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2598,14 +2598,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1.192092895507812e-06</v>
+        <v>7.152557373046875e-07</v>
       </c>
       <c r="D87" t="n">
         <v>0.1204717775905644</v>
@@ -2623,14 +2623,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>7.152557373046875e-07</v>
+        <v>4.76837158203125e-07</v>
       </c>
       <c r="D88" t="n">
         <v>0.2255451713395639</v>
@@ -2648,7 +2648,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2673,14 +2673,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>7.152557373046875e-07</v>
+        <v>4.76837158203125e-07</v>
       </c>
       <c r="D90" t="n">
         <v>0.1871239470517449</v>
@@ -2698,7 +2698,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2723,14 +2723,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>6</v>
       </c>
       <c r="C92" t="n">
-        <v>4.76837158203125e-07</v>
+        <v>7.152557373046875e-07</v>
       </c>
       <c r="D92" t="n">
         <v>0.2179770693702582</v>
@@ -2748,14 +2748,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>7</v>
       </c>
       <c r="C93" t="n">
-        <v>9.5367431640625e-07</v>
+        <v>7.152557373046875e-07</v>
       </c>
       <c r="D93" t="n">
         <v>0.1941365490847384</v>
@@ -2773,7 +2773,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2798,14 +2798,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>9.5367431640625e-07</v>
+        <v>7.152557373046875e-07</v>
       </c>
       <c r="D95" t="n">
         <v>0.2447844228094576</v>
@@ -2823,14 +2823,14 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>4.76837158203125e-07</v>
+        <v>7.152557373046875e-07</v>
       </c>
       <c r="D96" t="n">
         <v>0.2603679451200499</v>
@@ -2848,14 +2848,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>4.76837158203125e-07</v>
+        <v>9.5367431640625e-07</v>
       </c>
       <c r="D97" t="n">
         <v>0.2141157811260904</v>
@@ -2873,7 +2873,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2898,14 +2898,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>13</v>
       </c>
       <c r="C99" t="n">
-        <v>4.76837158203125e-07</v>
+        <v>7.152557373046875e-07</v>
       </c>
       <c r="D99" t="n">
         <v>0.1549019607843137</v>
@@ -2923,14 +2923,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>14</v>
       </c>
       <c r="C100" t="n">
-        <v>7.152557373046875e-07</v>
+        <v>9.5367431640625e-07</v>
       </c>
       <c r="D100" t="n">
         <v>0.2932298404484692</v>
@@ -2948,14 +2948,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>15</v>
       </c>
       <c r="C101" t="n">
-        <v>4.76837158203125e-07</v>
+        <v>2.145767211914062e-06</v>
       </c>
       <c r="D101" t="n">
         <v>0.2409240924092409</v>
@@ -2973,14 +2973,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>1.192092895507812e-06</v>
+        <v>4.76837158203125e-07</v>
       </c>
       <c r="D102" t="n">
         <v>0.2926354071957397</v>
@@ -2998,14 +2998,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>17</v>
       </c>
       <c r="C103" t="n">
-        <v>7.152557373046875e-07</v>
+        <v>9.5367431640625e-07</v>
       </c>
       <c r="D103" t="n">
         <v>0.2965924233771178</v>
@@ -3023,14 +3023,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>18</v>
       </c>
       <c r="C104" t="n">
-        <v>7.152557373046875e-07</v>
+        <v>4.76837158203125e-07</v>
       </c>
       <c r="D104" t="n">
         <v>0.2420499716070414</v>
@@ -3048,14 +3048,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>19</v>
       </c>
       <c r="C105" t="n">
-        <v>4.76837158203125e-07</v>
+        <v>7.152557373046875e-07</v>
       </c>
       <c r="D105" t="n">
         <v>0.3552790044158972</v>
@@ -3073,14 +3073,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>20</v>
       </c>
       <c r="C106" t="n">
-        <v>4.76837158203125e-07</v>
+        <v>7.152557373046875e-07</v>
       </c>
       <c r="D106" t="n">
         <v>0.1354461422373137</v>
@@ -3098,14 +3098,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>21</v>
       </c>
       <c r="C107" t="n">
-        <v>7.152557373046875e-07</v>
+        <v>4.76837158203125e-07</v>
       </c>
       <c r="D107" t="n">
         <v>0.2418856259659969</v>
@@ -3123,14 +3123,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>22</v>
       </c>
       <c r="C108" t="n">
-        <v>7.152557373046875e-07</v>
+        <v>4.76837158203125e-07</v>
       </c>
       <c r="D108" t="n">
         <v>0.2616260677000949</v>
@@ -3148,14 +3148,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>23</v>
       </c>
       <c r="C109" t="n">
-        <v>9.5367431640625e-07</v>
+        <v>4.76837158203125e-07</v>
       </c>
       <c r="D109" t="n">
         <v>0.269222197459327</v>
@@ -3173,14 +3173,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>24</v>
       </c>
       <c r="C110" t="n">
-        <v>7.152557373046875e-07</v>
+        <v>4.76837158203125e-07</v>
       </c>
       <c r="D110" t="n">
         <v>0.1941365490847384</v>
@@ -3198,7 +3198,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3223,14 +3223,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>26</v>
       </c>
       <c r="C112" t="n">
-        <v>4.76837158203125e-07</v>
+        <v>1.192092895507812e-06</v>
       </c>
       <c r="D112" t="n">
         <v>0.2854613417273264</v>
@@ -3248,7 +3248,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BERT-base</t>
+          <t>'que'</t>
         </is>
       </c>
       <c r="B113" t="n">
